--- a/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
+++ b/InputData/elec/BCpUC/Battery Cost per Unit Cap.xlsx
@@ -1,36 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS v 1.43\InputData\elec\BCpUC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipI\InputData\elec\BCpUC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_631683809840774578B5C28E04972D29AF0AACD2" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="2" r:id="rId1"/>
     <sheet name="Calculations" sheetId="1" r:id="rId2"/>
     <sheet name="BCpUC" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="46">
   <si>
     <t>$/kW</t>
   </si>
@@ -169,9 +160,6 @@
     </r>
   </si>
   <si>
-    <t>do not wish to capture).then curve fit the remaining years to get values for 2010 through 2050.</t>
-  </si>
-  <si>
     <t>We curve fit the 2018-2030 data, which nicely matches a second-order polynomial, and use this</t>
   </si>
   <si>
@@ -182,12 +170,24 @@
   </si>
   <si>
     <t>in maximum battery usage rate.</t>
+  </si>
+  <si>
+    <t>do not wish to capture). Then curve fit the remaining years to get values for 2010 through 2050.</t>
+  </si>
+  <si>
+    <t>Used to calculate battery storage deployment. Only the first year of this time series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">input variable is used, and the remaining years are handled via endogenous </t>
+  </si>
+  <si>
+    <t>learning.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
@@ -385,14 +385,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Body: normal cell" xfId="5"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
+    <cellStyle name="Footnotes: top row" xfId="7"/>
+    <cellStyle name="Header: bottom row" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Parent row" xfId="6"/>
+    <cellStyle name="Table title" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -427,6 +427,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -606,7 +607,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B82-4C65-B854-094CFB3D13A3}"/>
+              <c16:uniqueId val="{00000000-9A29-436B-B23F-B2D260961CC0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -755,6 +756,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -811,13 +813,7 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1097,10 +1093,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1180,35 +1178,55 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
         <v>1.0549999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId1"/>
+    <hyperlink ref="B14" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J116"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1238,22 +1256,22 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1684,7 +1702,7 @@
         <v>2010</v>
       </c>
       <c r="C60" s="14">
-        <f>A60*About!$A$19</f>
+        <f>A60*About!$A$23</f>
         <v>636.16499999999996</v>
       </c>
     </row>
@@ -1696,7 +1714,7 @@
         <v>2010</v>
       </c>
       <c r="C61" s="14">
-        <f>A61*About!$A$19</f>
+        <f>A61*About!$A$23</f>
         <v>821.84499999999991</v>
       </c>
     </row>
@@ -1708,7 +1726,7 @@
         <v>2010</v>
       </c>
       <c r="C62" s="14">
-        <f>A62*About!$A$19</f>
+        <f>A62*About!$A$23</f>
         <v>750.1049999999999</v>
       </c>
     </row>
@@ -1720,7 +1738,7 @@
         <v>2010</v>
       </c>
       <c r="C63" s="14">
-        <f>A63*About!$A$19</f>
+        <f>A63*About!$A$23</f>
         <v>745.88499999999999</v>
       </c>
     </row>
@@ -1732,7 +1750,7 @@
         <v>2010</v>
       </c>
       <c r="C64" s="14">
-        <f>A64*About!$A$19</f>
+        <f>A64*About!$A$23</f>
         <v>672.03499999999997</v>
       </c>
     </row>
@@ -1767,7 +1785,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2332,13 +2350,13 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF003399"/>
   </sheetPr>
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2730,24 +2748,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -2981,32 +2981,32 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30A10B14-3846-4D1A-A8CE-FD492DA6BF59}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15065A01-A1A5-457B-941C-E0274055E98F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A46141A9-E995-4C12-B049-FEDF17E4B108}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{32E8A558-3CF2-4C6E-AD9E-4F6954EEB4E0}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E0E36ED-7D10-49C4-9318-81321DCE3AD7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD4966FC-4B3B-4415-A25B-8DC33BFB2053}"/>
 </file>